--- a/source_code/data/hp.xlsx
+++ b/source_code/data/hp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a53d7cd901a21028/Master/Masterarbeit/district_thermal_energy_systems_with_power_markets/source_code/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{E92A9608-266D-459B-82B0-0A9FAA6538C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D644CFFD-2053-424A-A7D8-53291A827AD7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F41C6E1-42FB-4E50-BE1E-C883063F0E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -366,11 +366,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,12 +380,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>346000</v>
+        <v>910000</v>
       </c>
       <c r="B2">
-        <v>28200</v>
+        <v>2130</v>
       </c>
     </row>
   </sheetData>
@@ -395,11 +397,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45690EF8-0787-4222-A3FE-ACB6CD2B8582}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,12 +411,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>336000</v>
+        <v>810000</v>
       </c>
       <c r="B2">
-        <v>27700</v>
+        <v>2130</v>
       </c>
     </row>
   </sheetData>
@@ -424,11 +428,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E19C56-C44F-456C-9F61-25DA0654B4B1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,12 +442,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>328000</v>
+        <v>810000</v>
       </c>
       <c r="B2">
-        <v>27300</v>
+        <v>2130</v>
       </c>
     </row>
   </sheetData>
@@ -453,11 +459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C08366A-A187-448F-95A9-2B811BDB695F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,12 +473,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>320000</v>
+        <v>810000</v>
       </c>
       <c r="B2">
-        <v>26900</v>
+        <v>2130</v>
       </c>
     </row>
   </sheetData>
@@ -482,11 +490,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFFC2A3-5E73-48EB-A397-B717D9502D5A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,12 +504,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>312000</v>
+        <v>810000</v>
       </c>
       <c r="B2">
-        <v>26350</v>
+        <v>2130</v>
       </c>
     </row>
   </sheetData>
@@ -511,11 +521,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672F23E-57C2-42EA-A960-2EB80F9B3C17}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,12 +535,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>304000</v>
+        <v>810000</v>
       </c>
       <c r="B2">
-        <v>25800</v>
+        <v>2130</v>
       </c>
     </row>
   </sheetData>

--- a/source_code/data/hp.xlsx
+++ b/source_code/data/hp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F41C6E1-42FB-4E50-BE1E-C883063F0E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E083721-436A-48D8-8016-CA6345471CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -366,9 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -397,9 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45690EF8-0787-4222-A3FE-ACB6CD2B8582}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -428,9 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E19C56-C44F-456C-9F61-25DA0654B4B1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -459,9 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C08366A-A187-448F-95A9-2B811BDB695F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -490,9 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFFC2A3-5E73-48EB-A397-B717D9502D5A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -521,9 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672F23E-57C2-42EA-A960-2EB80F9B3C17}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/source_code/data/hp.xlsx
+++ b/source_code/data/hp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E083721-436A-48D8-8016-CA6345471CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CFF783-F9AB-4EB6-9CDB-889A38DDCAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,12 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
   <si>
     <t>p_hp_c_inv</t>
-  </si>
-  <si>
-    <t>p_hp_c_fix</t>
   </si>
 </sst>
 </file>
@@ -364,26 +361,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>910000</v>
-      </c>
-      <c r="B2">
-        <v>2130</v>
       </c>
     </row>
   </sheetData>
@@ -393,26 +384,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45690EF8-0787-4222-A3FE-ACB6CD2B8582}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>810000</v>
-      </c>
-      <c r="B2">
-        <v>2130</v>
       </c>
     </row>
   </sheetData>
@@ -422,26 +407,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E19C56-C44F-456C-9F61-25DA0654B4B1}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>810000</v>
-      </c>
-      <c r="B2">
-        <v>2130</v>
       </c>
     </row>
   </sheetData>
@@ -451,26 +430,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C08366A-A187-448F-95A9-2B811BDB695F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>810000</v>
-      </c>
-      <c r="B2">
-        <v>2130</v>
       </c>
     </row>
   </sheetData>
@@ -480,26 +453,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFFC2A3-5E73-48EB-A397-B717D9502D5A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>810000</v>
-      </c>
-      <c r="B2">
-        <v>2130</v>
       </c>
     </row>
   </sheetData>
@@ -509,27 +476,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672F23E-57C2-42EA-A960-2EB80F9B3C17}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>810000</v>
       </c>
-      <c r="B2">
-        <v>2130</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/source_code/data/hp.xlsx
+++ b/source_code/data/hp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CFF783-F9AB-4EB6-9CDB-889A38DDCAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F627DE-86AA-43B3-AD5E-C41BECE859AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>910000</v>
+        <v>755876</v>
       </c>
     </row>
   </sheetData>
@@ -397,7 +397,8 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>810000</v>
+        <f>'2025'!A2*(1-0.25*0.2)</f>
+        <v>718082.2</v>
       </c>
     </row>
   </sheetData>
@@ -420,7 +421,8 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>810000</v>
+        <f>'2025'!A2*(1-0.25*0.4)</f>
+        <v>680288.4</v>
       </c>
     </row>
   </sheetData>
@@ -443,7 +445,8 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>810000</v>
+        <f>'2025'!A2*(1-0.25*0.6)</f>
+        <v>642494.6</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +469,8 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>810000</v>
+        <f>'2025'!A2*(1-0.25*0.8)</f>
+        <v>604700.80000000005</v>
       </c>
     </row>
   </sheetData>
@@ -489,7 +493,8 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>810000</v>
+        <f>'2025'!A2*(1-0.25*1)</f>
+        <v>566907</v>
       </c>
     </row>
   </sheetData>
